--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value21.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value21.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.064244340852849</v>
+        <v>5.071262359619141</v>
       </c>
       <c r="B1">
-        <v>1.344519569997477</v>
+        <v>4.63306999206543</v>
       </c>
       <c r="C1">
-        <v>1.475939055191812</v>
+        <v>4.002201557159424</v>
       </c>
       <c r="D1">
-        <v>1.625004417238491</v>
+        <v>4.956319808959961</v>
       </c>
       <c r="E1">
-        <v>1.915485330539675</v>
+        <v>4.859043598175049</v>
       </c>
     </row>
   </sheetData>
